--- a/Data/differences_output_by_row.xlsx
+++ b/Data/differences_output_by_row.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/critty/Desktop/Base/GitHub/FWRA_2022_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B4BBD-CEE8-E84C-94AD-F69786ACE09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC68C62-466C-8F4E-A5AA-241192D3BF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,10 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="AF25" sqref="AF25"/>
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,6 +625,8 @@
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="22" width="0" hidden="1" customWidth="1"/>
     <col min="24" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="16" customWidth="1"/>
+    <col min="30" max="30" width="35.1640625" customWidth="1"/>
     <col min="32" max="32" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -820,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="AE2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AF2" t="s">
         <v>48</v>
@@ -921,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="AE3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AF3" t="s">
         <v>48</v>
@@ -1022,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="AE4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s">
         <v>48</v>
@@ -1123,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="AE5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s">
         <v>48</v>
@@ -1224,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="AE6" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AF6" t="s">
         <v>48</v>
@@ -1325,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="AE7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AF7" t="s">
         <v>48</v>
@@ -1426,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="AE8" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AF8" t="s">
         <v>48</v>
@@ -1527,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AF9" t="s">
         <v>48</v>
@@ -1628,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="AE10" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AF10" t="s">
         <v>48</v>
@@ -1729,7 +1732,7 @@
         <v>12</v>
       </c>
       <c r="AE11" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s">
         <v>48</v>
@@ -1738,7 +1741,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2548,6 +2551,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AG19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SARITA RIVER"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG19">
       <sortCondition ref="T1:T19"/>
     </sortState>
